--- a/spliced/walkingToRunning/2023-03-30_14-19-25/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-19-25/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>-20.82876014709473</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20.3416576385498</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-37.60380554199219</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.662521362304688</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-8.722187995910645</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.096003532409668</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.941717147827148</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-72.57207489013672</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-62.40628051757812</v>
+      </c>
+      <c r="C24" t="n">
+        <v>63.55230712890625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-86.77053833007812</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-16.04696655273438</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-37.80954742431641</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-12.0439281463623</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-10.04275798797607</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-17.28581237792969</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-29.28538513183594</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-21.46180725097656</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.313263416290283</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.212208271026612</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.285176277160645</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2726368904113769</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-6.000577926635742</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.46978282928467</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.907239437103272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>19.4264965057373</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-45.61504745483398</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.111544609069824</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-43.24179840087891</v>
+      </c>
+      <c r="B31" t="n">
+        <v>13.53559017181396</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-9.444896697998049</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
